--- a/timetabling_GA/results/HK3_CT02_2025/LichHocKy_HK3_CT02_2025.xlsx
+++ b/timetabling_GA/results/HK3_CT02_2025/LichHocKy_HK3_CT02_2025.xlsx
@@ -22,7 +22,6 @@
     <sheet name="Week_13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Week_14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Week_15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Week_16" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -96,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,44 +117,11 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -181,7 +147,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,6 +515,247 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 1 TIMETABLE (23/03/2026 - 29/03/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+23/03</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+24/03</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+25/03</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+26/03</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+27/03</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+28/03</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+29/03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -594,7 +800,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 1 TIMETABLE (23/03/2026 - 29/03/2026)</t>
+          <t>WEEK 10 TIMETABLE (25/05/2026 - 31/05/2026)</t>
         </is>
       </c>
     </row>
@@ -617,43 +823,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-23/03</t>
+25/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-24/03</t>
+26/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-25/03</t>
+27/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-26/03</t>
+28/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-27/03</t>
+29/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-28/03</t>
+30/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-29/03</t>
+31/05</t>
         </is>
       </c>
     </row>
@@ -679,8 +885,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -689,7 +895,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -704,19 +910,23 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH014
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
 (Theory)
 Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -729,23 +939,22 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>MH013
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -753,13 +962,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +1012,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 10 TIMETABLE (25/05/2026 - 31/05/2026)</t>
+          <t>WEEK 11 TIMETABLE (01/06/2026 - 07/06/2026)</t>
         </is>
       </c>
     </row>
@@ -826,43 +1035,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-25/05</t>
+01/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-26/05</t>
+02/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-27/05</t>
+03/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-28/05</t>
+04/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-29/05</t>
+05/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-30/05</t>
+06/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-31/05</t>
+07/06</t>
         </is>
       </c>
     </row>
@@ -888,8 +1097,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -898,7 +1107,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -909,29 +1118,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -943,13 +1174,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,7 +1224,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 11 TIMETABLE (01/06/2026 - 07/06/2026)</t>
+          <t>WEEK 12 TIMETABLE (08/06/2026 - 14/06/2026)</t>
         </is>
       </c>
     </row>
@@ -1016,43 +1247,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-01/06</t>
+08/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-02/06</t>
+09/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-03/06</t>
+10/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-04/06</t>
+11/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-05/06</t>
+12/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-06/06</t>
+13/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-07/06</t>
+14/06</t>
         </is>
       </c>
     </row>
@@ -1078,8 +1309,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1088,7 +1319,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1099,29 +1330,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1133,13 +1386,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,7 +1436,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 12 TIMETABLE (08/06/2026 - 14/06/2026)</t>
+          <t>WEEK 13 TIMETABLE (15/06/2026 - 21/06/2026)</t>
         </is>
       </c>
     </row>
@@ -1206,43 +1459,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-08/06</t>
+15/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-09/06</t>
+16/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-10/06</t>
+17/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-11/06</t>
+18/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-12/06</t>
+19/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-13/06</t>
+20/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-14/06</t>
+21/06</t>
         </is>
       </c>
     </row>
@@ -1268,8 +1521,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1278,7 +1531,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1289,29 +1542,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1323,13 +1598,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,7 +1648,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 13 TIMETABLE (15/06/2026 - 21/06/2026)</t>
+          <t>WEEK 14 TIMETABLE (22/06/2026 - 28/06/2026)</t>
         </is>
       </c>
     </row>
@@ -1396,43 +1671,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-15/06</t>
+22/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-16/06</t>
+23/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-17/06</t>
+24/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-18/06</t>
+25/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-19/06</t>
+26/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-20/06</t>
+27/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-21/06</t>
+28/06</t>
         </is>
       </c>
     </row>
@@ -1458,8 +1733,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1468,7 +1743,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1479,29 +1754,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1513,13 +1810,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,7 +1860,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 14 TIMETABLE (22/06/2026 - 28/06/2026)</t>
+          <t>WEEK 15 TIMETABLE (29/06/2026 - 05/07/2026)</t>
         </is>
       </c>
     </row>
@@ -1586,43 +1883,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/06</t>
+29/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/06</t>
+30/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/06</t>
+01/07</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/06</t>
+02/07</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/06</t>
+03/07</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/06</t>
+04/07</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/06</t>
+05/07</t>
         </is>
       </c>
     </row>
@@ -1648,8 +1945,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1658,7 +1955,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1669,373 +1966,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 15 TIMETABLE (29/06/2026 - 05/07/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-29/06</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-30/06</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-01/07</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-02/07</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-03/07</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-04/07</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-05/07</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Theory)
-Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 16 TIMETABLE (06/07/2026 - 12/07/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-06/07</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-07/07</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-08/07</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-09/07</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-10/07</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-11/07</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-12/07</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2182,8 +2157,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2192,84 +2167,30 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Practice)
-Room: TH3
+Room: TH2
 Lecturer: GV006</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Theory)
-Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
@@ -2277,6 +2198,71 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2287,22 +2273,22 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
-Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -2310,12 +2296,11 @@
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2456,8 +2441,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2466,84 +2451,30 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Practice)
-Room: TH3
+Room: TH2
 Lecturer: GV006</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Theory)
-Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
@@ -2551,6 +2482,71 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2561,22 +2557,22 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
-Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -2584,12 +2580,11 @@
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2730,8 +2725,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2740,84 +2735,30 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Practice)
-Room: TH3
+Room: TH2
 Lecturer: GV006</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Theory)
-Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
@@ -2825,6 +2766,71 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2835,22 +2841,22 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
-Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -2858,12 +2864,11 @@
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3004,8 +3009,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3014,84 +3019,30 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Practice)
-Room: TH3
+Room: TH2
 Lecturer: GV006</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Theory)
-Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="10" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
@@ -3099,6 +3050,71 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -3109,22 +3125,22 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
-Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -3132,12 +3148,11 @@
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3149,7 +3164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3278,8 +3293,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3288,26 +3303,26 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Practice)
-Room: TH3
+Room: TH2
 Lecturer: GV006</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -3317,7 +3332,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3328,58 +3343,87 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH013
 (Theory)
 Room: LT1
-Lecturer: GV006</t>
-        </is>
-      </c>
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Practice)
-Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3397,7 +3441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,8 +3570,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3536,7 +3580,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3547,29 +3591,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3587,7 +3653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3716,8 +3782,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3726,7 +3792,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3737,29 +3803,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3777,7 +3865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3906,8 +3994,8 @@
         <is>
           <t>MH013
 (Theory)
-Room: LT2
-Lecturer: GV005</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3916,7 +4004,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3927,29 +4015,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>MH014
 (Theory)
-Room: LT1
+Room: LT2
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
